--- a/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
+++ b/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldgau\Desktop\SwarmUS_ALTIUM\Electrical\01 - HIVE_SIGHT\01 - SCHEMAS ET PCB\02 - REV 1.01 (2021-02-11)\04 - ASSEMBLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Travaux\PMC\Altium\Electrical\01 - HIVE_SIGHT\01 - SCHEMAS ET PCB\02 - REV 1.01 (2021-02-11)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFAB2CC-0B79-4294-85B6-4434B95F5737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A1E2D-0907-443E-8311-07C6BBDA565B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{700054E0-054A-44CB-B856-A30DAB58CB25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{700054E0-054A-44CB-B856-A30DAB58CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="HIVE_SIGHT_BOM REV Project_PCB_" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'HIVE_SIGHT_BOM REV Project_PCB_'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'HIVE_SIGHT_BOM REV Project_PCB_'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="497">
   <si>
     <t>Assembly Note</t>
   </si>
@@ -1153,9 +1151,6 @@
     <t>Keystone Electronics</t>
   </si>
   <si>
-    <t>5011</t>
-  </si>
-  <si>
     <t>REG_DC DC CONVERTER 3.3V 5W_9-PowerTFQFN</t>
   </si>
   <si>
@@ -1493,6 +1488,45 @@
   </si>
   <si>
     <t>https://www.mouser.ca/ProjectManager/ProjectDetail.aspx?AccessID=ee9c10a7f1</t>
+  </si>
+  <si>
+    <t>296-LMK1C1102PWRCT-ND</t>
+  </si>
+  <si>
+    <t>Vérification Panier digikey</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>OUISH</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>oiui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacé par 1276-1025-1-ND </t>
+  </si>
+  <si>
+    <t>36-5011-ND</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Mouser:855-M20-7810445</t>
+  </si>
+  <si>
+    <t>Mouser : 634-CP2102NA02QFN24R</t>
+  </si>
+  <si>
+    <t>Serait sur digikey ?</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,8 +1581,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1571,12 +1611,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,9 +1676,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1635,7 +1702,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1934,120 +2001,176 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="S1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>K2*5*(1+L2)</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="11">
+        <v>10</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4">
-        <f>K3*5*(1+L3)</f>
+        <f t="shared" ref="M3:M66" si="0">K3*5*(1+L3)</f>
         <v>10</v>
       </c>
       <c r="N3" s="11">
@@ -2057,69 +2180,79 @@
         <v>21</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M67" si="0">K4*5*(1+L4)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="N4" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2127,56 +2260,59 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N5" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S5" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2184,56 +2320,59 @@
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="4">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="N6" s="11">
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="255" x14ac:dyDescent="0.25">
+      <c r="S6" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2241,16 +2380,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
@@ -2259,38 +2398,41 @@
         <v>51</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K7" s="4">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="N7" s="11">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2298,16 +2440,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
@@ -2316,38 +2458,41 @@
         <v>51</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K8" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N8" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2355,13 +2500,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -2373,38 +2518,41 @@
         <v>51</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K9" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N9" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2412,10 +2560,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -2430,38 +2578,41 @@
         <v>51</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N10" s="11">
-        <v>100</v>
-      </c>
-      <c r="O10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S10" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2469,16 +2620,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>15</v>
@@ -2487,7 +2638,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>39</v>
@@ -2509,16 +2660,19 @@
         <v>21</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S11" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2526,25 +2680,25 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>39</v>
@@ -2566,16 +2720,19 @@
         <v>21</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2583,25 +2740,25 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>39</v>
@@ -2623,16 +2780,19 @@
         <v>21</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2640,10 +2800,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -2652,44 +2812,47 @@
         <v>63</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>15</v>
+        <v>491</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N14" s="11">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="N14" s="4">
+        <v>50</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S14" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -2697,16 +2860,16 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>15</v>
@@ -2715,120 +2878,122 @@
         <v>51</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L15" s="4">
         <v>1</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N15" s="4">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="N15" s="11">
+        <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
         <v>1</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N16" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K17" s="4">
         <v>1</v>
@@ -2847,69 +3012,79 @@
         <v>21</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="4">
         <v>1</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N18" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2917,10 +3092,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -2935,49 +3110,50 @@
         <v>51</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N19" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="S19" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -2985,54 +3161,55 @@
       <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N20" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S20" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -3045,7 +3222,7 @@
         <v>51</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
@@ -3067,69 +3244,79 @@
         <v>21</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="S21" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" s="4">
         <v>1</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N22" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -3137,38 +3324,38 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="K23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" s="4">
         <v>1</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N23" s="11">
         <v>20</v>
@@ -3177,16 +3364,19 @@
         <v>21</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -3194,56 +3384,59 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>154</v>
       </c>
       <c r="K24" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N24" s="11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -3251,56 +3444,59 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>154</v>
       </c>
       <c r="K25" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N25" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -3308,25 +3504,25 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>154</v>
@@ -3348,102 +3544,108 @@
         <v>21</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="K27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N27" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K28" s="4">
         <v>3</v>
@@ -3462,98 +3664,98 @@
         <v>21</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="K29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N29" s="11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="Q29" s="4"/>
       <c r="R29" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
@@ -3572,36 +3774,41 @@
         <v>21</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q30" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="R30" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>184</v>
@@ -3623,41 +3830,44 @@
         <v>21</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Q31" s="4"/>
       <c r="R31" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="H32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="K32" s="4">
         <v>1</v>
@@ -3669,46 +3879,49 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="13">
         <v>5</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K33" s="4">
         <v>1</v>
@@ -3720,30 +3933,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <v>5</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q33" s="4"/>
-      <c r="R33" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R33" s="4"/>
+      <c r="S33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>27</v>
@@ -3756,7 +3970,7 @@
         <v>183</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>31</v>
@@ -3778,21 +3992,24 @@
         <v>21</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -3805,7 +4022,7 @@
         <v>183</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>31</v>
@@ -3827,21 +4044,24 @@
         <v>21</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
@@ -3854,7 +4074,7 @@
         <v>183</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>31</v>
@@ -3876,72 +4096,84 @@
         <v>21</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="S36" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" s="3" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K37" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N37" s="11">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>184</v>
@@ -3949,67 +4181,66 @@
       <c r="F38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4">
         <v>1</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N38" s="11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>39</v>
@@ -4031,23 +4262,28 @@
         <v>21</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -4060,7 +4296,7 @@
         <v>51</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>39</v>
@@ -4082,287 +4318,309 @@
         <v>21</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="S40" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" s="3" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N41" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
       <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="3" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>154</v>
       </c>
       <c r="K42" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4">
         <v>1</v>
       </c>
       <c r="M42" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N42" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="Q42" s="4"/>
       <c r="R42" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" s="3" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="K43" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L43" s="4">
         <v>1</v>
       </c>
       <c r="M43" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N43" s="11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q43" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="R43" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K44" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4">
         <v>1</v>
       </c>
       <c r="M44" s="4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N44" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H45" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K45" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L45" s="4">
         <v>1</v>
       </c>
       <c r="M45" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N45" s="11">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="S45" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -4370,13 +4628,13 @@
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>63</v>
@@ -4388,38 +4646,41 @@
         <v>51</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K46" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L46" s="4">
         <v>1</v>
       </c>
       <c r="M46" s="4">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N46" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="S46" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -4427,13 +4688,13 @@
         <v>24</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>63</v>
@@ -4445,38 +4706,41 @@
         <v>51</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K47" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L47" s="4">
         <v>1</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N47" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="S47" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -4484,10 +4748,10 @@
         <v>24</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>27</v>
@@ -4502,10 +4766,10 @@
         <v>51</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K48" s="4">
         <v>2</v>
@@ -4524,16 +4788,19 @@
         <v>21</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -4541,10 +4808,10 @@
         <v>24</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
@@ -4559,7 +4826,7 @@
         <v>51</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>31</v>
@@ -4581,16 +4848,19 @@
         <v>21</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -4598,10 +4868,10 @@
         <v>24</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>27</v>
@@ -4616,38 +4886,41 @@
         <v>51</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K50" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
       </c>
       <c r="M50" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N50" s="11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="S50" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -4655,10 +4928,10 @@
         <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>27</v>
@@ -4673,20 +4946,20 @@
         <v>51</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K51" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L51" s="4">
         <v>1</v>
       </c>
       <c r="M51" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N51" s="11">
         <v>100</v>
@@ -4695,27 +4968,30 @@
         <v>21</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>27</v>
@@ -4723,56 +4999,57 @@
       <c r="F52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K52" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L52" s="4">
         <v>1</v>
       </c>
       <c r="M52" s="4">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N52" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>326</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>27</v>
@@ -4780,54 +5057,57 @@
       <c r="F53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H53" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K53" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="4">
         <v>1</v>
       </c>
       <c r="M53" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N53" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
       <c r="B54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -4835,98 +5115,104 @@
       <c r="F54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K54" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="4">
         <v>1</v>
       </c>
       <c r="M54" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N54" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>339</v>
+        <v>475</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="4"/>
+        <v>476</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>341</v>
+        <v>477</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K55" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" s="4">
         <v>1</v>
       </c>
       <c r="M55" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N55" s="11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
@@ -4934,298 +5220,313 @@
         <v>24</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>476</v>
+        <v>347</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>477</v>
+        <v>349</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K56" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N56" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>479</v>
+        <v>351</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S56" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
       <c r="B57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="K57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" s="4">
         <v>0</v>
       </c>
       <c r="M57" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N57" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="S57" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B58" s="3" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G58" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H58" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="K58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="4">
         <v>0</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N58" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>361</v>
+        <v>183</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>365</v>
+        <v>15</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5011</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="K59" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L59" s="4">
         <v>0</v>
       </c>
       <c r="M59" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N59" s="11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>366</v>
+      <c r="P59" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>367</v>
+        <v>15</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="3" t="s">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="K60" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N60" s="11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="4"/>
+      <c r="P60" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="Q60" s="3" t="s">
-        <v>15</v>
+        <v>377</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S60" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>154</v>
@@ -5247,47 +5548,54 @@
         <v>21</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="S61" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>385</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>388</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H62" s="3" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>154</v>
       </c>
       <c r="K62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="4">
         <f t="shared" si="0"/>
@@ -5300,95 +5608,93 @@
         <v>21</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>154</v>
       </c>
       <c r="K63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="4">
         <v>0</v>
       </c>
       <c r="M63" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N63" s="11">
-        <v>10</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q63" s="4"/>
       <c r="R63" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="S63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="3" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>154</v>
@@ -5406,36 +5712,43 @@
       <c r="N64" s="11">
         <v>5</v>
       </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="O64" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="S64" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>154</v>
@@ -5454,42 +5767,47 @@
         <v>5</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>403</v>
+        <v>21</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="S65" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>411</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H66" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="K66" s="4">
         <v>1</v>
@@ -5508,41 +5826,44 @@
         <v>21</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q66" s="4"/>
+        <v>414</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="R66" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="S66" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="K67" s="4">
         <v>1</v>
@@ -5551,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M67:M76" si="1">K67*5*(1+L67)</f>
         <v>5</v>
       </c>
       <c r="N67" s="11">
@@ -5561,41 +5882,42 @@
         <v>21</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q67" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="Q67" s="4"/>
       <c r="R67" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="K68" s="4">
         <v>1</v>
@@ -5604,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" ref="M68:M77" si="1">K68*5*(1+L68)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N68" s="11">
@@ -5614,36 +5936,43 @@
         <v>21</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+    </row>
+    <row r="69" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>431</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="H69" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>184</v>
@@ -5658,45 +5987,50 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N69" s="11">
+      <c r="N69" s="13">
         <v>5</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>151</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>184</v>
@@ -5711,14 +6045,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="11">
         <v>5</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>151</v>
@@ -5726,35 +6060,38 @@
       <c r="R70" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S70" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>151</v>
+        <v>442</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="K71" s="4">
         <v>1</v>
@@ -5773,152 +6110,149 @@
         <v>21</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="Q71" s="4"/>
       <c r="R71" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+        <v>445</v>
+      </c>
+      <c r="S71" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="K72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" s="4">
         <v>0</v>
       </c>
       <c r="M72" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N72" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q72" s="4"/>
+        <v>451</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="R72" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73" s="4">
         <v>0</v>
       </c>
       <c r="M73" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N73" s="11">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="N73" s="14">
+        <v>5</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S73" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>456</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="3" t="s">
-        <v>457</v>
-      </c>
+      <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="J74" s="3"/>
       <c r="K74" s="4">
         <v>1</v>
       </c>
@@ -5926,51 +6260,62 @@
         <v>0</v>
       </c>
       <c r="M74" s="4">
+        <v>5</v>
+      </c>
+      <c r="N74" s="11">
+        <v>5</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R74" s="3"/>
+      <c r="S74" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N74" s="14">
-        <v>5</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="4">
-        <v>1</v>
-      </c>
-      <c r="L75" s="4">
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <v>5</v>
-      </c>
       <c r="N75" s="11">
         <v>5</v>
       </c>
@@ -5978,114 +6323,77 @@
         <v>21</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1</v>
-      </c>
-      <c r="L76" s="4">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L76" s="6">
+        <v>1</v>
       </c>
       <c r="M76" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N76" s="11">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="N76" s="12">
+        <v>2</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L77" s="6">
-        <v>1</v>
-      </c>
-      <c r="M77" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N77" s="12">
-        <v>2</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
+      <c r="P76" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>483</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{CC3ABE48-95DC-464B-B474-5CF6545168AE}"/>
-    <hyperlink ref="D1" r:id="rId2" xr:uid="{8D6078C5-D69F-49BE-88E1-D78B128867C8}"/>
+    <hyperlink ref="A77" r:id="rId1" xr:uid="{CC3ABE48-95DC-464B-B474-5CF6545168AE}"/>
+    <hyperlink ref="D77" r:id="rId2" xr:uid="{8D6078C5-D69F-49BE-88E1-D78B128867C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="13" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="13" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
+++ b/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Travaux\PMC\Altium\Electrical\01 - HIVE_SIGHT\01 - SCHEMAS ET PCB\02 - REV 1.01 (2021-02-11)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A1E2D-0907-443E-8311-07C6BBDA565B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B50AA-3593-4A17-91B0-C50472FC659B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{700054E0-054A-44CB-B856-A30DAB58CB25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="496">
   <si>
     <t>Assembly Note</t>
   </si>
@@ -1484,9 +1484,6 @@
     <t>40MHz ±10ppm Crystal 9pF 40 Ohms 4-SMD, No Lead</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/short/47cbj1</t>
-  </si>
-  <si>
     <t>https://www.mouser.ca/ProjectManager/ProjectDetail.aspx?AccessID=ee9c10a7f1</t>
   </si>
   <si>
@@ -1526,7 +1523,7 @@
     <t>Mouser : 634-CP2102NA02QFN24R</t>
   </si>
   <si>
-    <t>Serait sur digikey ?</t>
+    <t>https://www.digikey.ca/short/47twv7</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,9 +2000,9 @@
   </sheetPr>
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S67" sqref="S67"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,10 +2067,10 @@
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -2133,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2189,7 +2186,7 @@
         <v>34</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2249,7 +2246,7 @@
         <v>42</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2309,7 +2306,7 @@
         <v>42</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="255" x14ac:dyDescent="0.25">
@@ -2369,7 +2366,7 @@
         <v>42</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2429,7 +2426,7 @@
         <v>34</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2489,7 +2486,7 @@
         <v>67</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2549,7 +2546,7 @@
         <v>73</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2609,7 +2606,7 @@
         <v>73</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2669,7 +2666,7 @@
         <v>73</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2729,7 +2726,7 @@
         <v>92</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2789,7 +2786,7 @@
         <v>73</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2812,7 +2809,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>51</v>
@@ -2849,7 +2846,7 @@
         <v>73</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2909,7 +2906,7 @@
         <v>108</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2965,7 +2962,7 @@
         <v>73</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3021,7 +3018,7 @@
         <v>119</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3081,7 +3078,7 @@
         <v>125</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3141,7 +3138,7 @@
         <v>125</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3197,7 +3194,7 @@
         <v>125</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3253,7 +3250,7 @@
         <v>125</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3313,7 +3310,7 @@
         <v>147</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3373,7 +3370,7 @@
         <v>157</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -3433,7 +3430,7 @@
         <v>165</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3493,7 +3490,7 @@
         <v>173</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -3553,7 +3550,7 @@
         <v>182</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3613,7 +3610,7 @@
         <v>193</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -3673,7 +3670,7 @@
         <v>201</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -3727,7 +3724,7 @@
         <v>157</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3783,7 +3780,7 @@
         <v>193</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3837,7 +3834,7 @@
         <v>219</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3858,7 +3855,7 @@
         <v>222</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>24</v>
@@ -3893,7 +3890,7 @@
         <v>125</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -3945,7 +3942,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -3997,7 +3994,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4049,7 +4046,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4101,7 +4098,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -4161,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4215,7 +4212,7 @@
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4271,7 +4268,7 @@
         <v>125</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4327,7 +4324,7 @@
         <v>125</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4387,7 +4384,7 @@
         <v>157</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4441,7 +4438,7 @@
         <v>274</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4501,7 +4498,7 @@
         <v>185</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4557,7 +4554,7 @@
         <v>286</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -4617,7 +4614,7 @@
         <v>292</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4677,7 +4674,7 @@
         <v>298</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4737,7 +4734,7 @@
         <v>286</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4797,7 +4794,7 @@
         <v>309</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4857,7 +4854,7 @@
         <v>315</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4917,7 +4914,7 @@
         <v>321</v>
       </c>
       <c r="S50" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -4977,7 +4974,7 @@
         <v>327</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5035,7 +5032,7 @@
         <v>333</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5095,7 +5092,7 @@
         <v>125</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -5151,7 +5148,7 @@
         <v>344</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -5209,7 +5206,7 @@
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5269,7 +5266,7 @@
         <v>219</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -5325,7 +5322,7 @@
         <v>360</v>
       </c>
       <c r="S57" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -5385,7 +5382,7 @@
         <v>309</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5436,7 +5433,7 @@
         <v>21</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>15</v>
@@ -5445,7 +5442,7 @@
         <v>157</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -5501,7 +5498,7 @@
         <v>157</v>
       </c>
       <c r="S60" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -5557,7 +5554,7 @@
         <v>157</v>
       </c>
       <c r="S61" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -5617,7 +5614,7 @@
         <v>15</v>
       </c>
       <c r="S62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -5662,14 +5659,14 @@
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="3" t="s">
         <v>397</v>
       </c>
       <c r="S63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5723,7 +5720,7 @@
         <v>397</v>
       </c>
       <c r="S64" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="75" x14ac:dyDescent="0.25">
@@ -5777,7 +5774,7 @@
         <v>309</v>
       </c>
       <c r="S65" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -5835,7 +5832,7 @@
         <v>157</v>
       </c>
       <c r="S66" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="105" x14ac:dyDescent="0.25">
@@ -5889,7 +5886,7 @@
         <v>421</v>
       </c>
       <c r="S67" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -5943,7 +5940,7 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="17" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
@@ -5966,7 +5963,7 @@
         <v>431</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>432</v>
@@ -6003,7 +6000,7 @@
         <v>157</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -6061,7 +6058,7 @@
         <v>157</v>
       </c>
       <c r="S70" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="90" x14ac:dyDescent="0.25">
@@ -6117,7 +6114,7 @@
         <v>445</v>
       </c>
       <c r="S71" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -6177,7 +6174,7 @@
         <v>125</v>
       </c>
       <c r="S72" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -6233,7 +6230,7 @@
         <v>125</v>
       </c>
       <c r="S73" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -6276,7 +6273,7 @@
       </c>
       <c r="R74" s="3"/>
       <c r="S74" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="120" x14ac:dyDescent="0.25">
@@ -6332,7 +6329,7 @@
         <v>309</v>
       </c>
       <c r="S75" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:21" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,24 +6373,23 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A77" r:id="rId1" xr:uid="{CC3ABE48-95DC-464B-B474-5CF6545168AE}"/>
-    <hyperlink ref="D77" r:id="rId2" xr:uid="{8D6078C5-D69F-49BE-88E1-D78B128867C8}"/>
+    <hyperlink ref="D77" r:id="rId1" xr:uid="{8D6078C5-D69F-49BE-88E1-D78B128867C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="13" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="13" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
+++ b/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Travaux\PMC\Altium\Electrical\01 - HIVE_SIGHT\01 - SCHEMAS ET PCB\02 - REV 1.01 (2021-02-11)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B50AA-3593-4A17-91B0-C50472FC659B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0C55D-27D9-48D3-8C55-8D520DC0E170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{700054E0-054A-44CB-B856-A30DAB58CB25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="497">
   <si>
     <t>Assembly Note</t>
   </si>
@@ -1523,7 +1523,10 @@
     <t>Mouser : 634-CP2102NA02QFN24R</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/short/47twv7</t>
+    <t>https://www.digikey.ca/short/47q31q</t>
+  </si>
+  <si>
+    <t>5 antennes wifi de plus</t>
   </si>
 </sst>
 </file>
@@ -1998,11 +2001,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R66" sqref="R66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6384,6 +6387,11 @@
         <v>482</v>
       </c>
     </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" xr:uid="{8D6078C5-D69F-49BE-88E1-D78B128867C8}"/>

--- a/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
+++ b/01 - HIVE_SIGHT/01 - SCHEMAS ET PCB/02 - REV 1.01 (2021-02-11)/04 - ASSEMBLY/HIVE_SIGHT_BOM_DIG.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Travaux\PMC\Altium\Electrical\01 - HIVE_SIGHT\01 - SCHEMAS ET PCB\02 - REV 1.01 (2021-02-11)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0C55D-27D9-48D3-8C55-8D520DC0E170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4152FB7-CB06-4A24-B739-E24C718933D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{700054E0-054A-44CB-B856-A30DAB58CB25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{700054E0-054A-44CB-B856-A30DAB58CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="HIVE_SIGHT_BOM REV Project_PCB_" sheetId="1" r:id="rId1"/>
+    <sheet name="Smol BOM" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HIVE_SIGHT_BOM REV Project_PCB_'!$1:$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="498">
   <si>
     <t>Assembly Note</t>
   </si>
@@ -1527,6 +1528,9 @@
   </si>
   <si>
     <t>5 antennes wifi de plus</t>
+  </si>
+  <si>
+    <t>Digikey Part Number 1</t>
   </si>
 </sst>
 </file>
@@ -2003,9 +2007,9 @@
   </sheetPr>
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6400,4 +6404,1251 @@
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="13" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C36123-F86D-490E-974A-EDBD902CA633}">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5011</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>